--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022-01/基本面分析.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022-01/基本面分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="27240" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1570,18 +1570,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="183" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -1695,21 +1695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1723,11 +1709,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1739,17 +1754,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1765,7 +1795,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1778,24 +1808,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,36 +1833,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,7 +1889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,7 +1925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,13 +1937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,13 +1961,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,25 +1991,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,25 +2039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,48 +2064,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,8 +2095,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2104,17 +2119,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,6 +2166,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2159,183 +2189,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2415,157 +2415,157 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2580,16 +2580,16 @@
     <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2628,7 +2628,7 @@
     <xf numFmtId="10" fontId="17" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2637,13 +2637,13 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2661,10 +2661,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2992,11 +2992,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AK5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
